--- a/public/Counts.xlsx
+++ b/public/Counts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE7BE4B-29FB-43FF-900F-B8954CC2CE61}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7CE29A8-076F-4687-8EFB-5AA2D0133D9A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -39,13 +39,16 @@
     <t>Constituency</t>
   </si>
   <si>
+    <t>JKNC</t>
+  </si>
+  <si>
     <t>BJP</t>
   </si>
   <si>
-    <t>INC</t>
-  </si>
-  <si>
-    <t>JMK</t>
+    <t>AINC</t>
+  </si>
+  <si>
+    <t>PDP</t>
   </si>
   <si>
     <t>OTH</t>
@@ -484,7 +487,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,13 +514,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -529,6 +535,9 @@
         <v>27</v>
       </c>
       <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
         <v>19</v>
       </c>
       <c r="J2" s="1"/>
@@ -538,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -550,6 +559,9 @@
         <v>40</v>
       </c>
       <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
       <c r="J3" s="1"/>
@@ -559,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>46</v>
@@ -571,6 +583,9 @@
         <v>17</v>
       </c>
       <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="G4">
         <v>27</v>
       </c>
       <c r="J4" s="1"/>
@@ -580,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -592,6 +607,9 @@
         <v>18</v>
       </c>
       <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
         <v>19</v>
       </c>
       <c r="J5" s="1"/>
@@ -601,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -613,6 +631,9 @@
         <v>27</v>
       </c>
       <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
         <v>19</v>
       </c>
       <c r="J6" s="1"/>
@@ -622,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -634,6 +655,9 @@
         <v>40</v>
       </c>
       <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
         <v>20</v>
       </c>
       <c r="J7" s="1"/>
@@ -643,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>46</v>
@@ -655,6 +679,9 @@
         <v>17</v>
       </c>
       <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8">
         <v>27</v>
       </c>
       <c r="J8" s="1"/>
@@ -664,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -676,6 +703,9 @@
         <v>18</v>
       </c>
       <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
         <v>19</v>
       </c>
       <c r="J9" s="1"/>
@@ -685,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -697,6 +727,9 @@
         <v>27</v>
       </c>
       <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
         <v>19</v>
       </c>
       <c r="J10" s="1"/>
@@ -706,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -718,6 +751,9 @@
         <v>40</v>
       </c>
       <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
         <v>20</v>
       </c>
       <c r="J11" s="1"/>
@@ -727,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>46</v>
@@ -739,6 +775,9 @@
         <v>17</v>
       </c>
       <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
         <v>27</v>
       </c>
       <c r="J12" s="1"/>
@@ -748,7 +787,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -760,6 +799,9 @@
         <v>18</v>
       </c>
       <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
         <v>19</v>
       </c>
       <c r="J13" s="1"/>
@@ -769,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -781,6 +823,9 @@
         <v>27</v>
       </c>
       <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14">
         <v>19</v>
       </c>
       <c r="J14" s="1"/>
@@ -790,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -802,6 +847,9 @@
         <v>40</v>
       </c>
       <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
         <v>20</v>
       </c>
       <c r="J15" s="1"/>
@@ -811,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -825,13 +873,16 @@
       <c r="F16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>35</v>
@@ -845,13 +896,16 @@
       <c r="F17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>21</v>
@@ -865,13 +919,16 @@
       <c r="F18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>37</v>
@@ -883,6 +940,9 @@
         <v>17</v>
       </c>
       <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
         <v>20</v>
       </c>
     </row>
